--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아니…… 애초에 이거 라이타니엔 말은 맞아? 현대 라이타니엔어에 이렇게 난해한 발음은 없다고 알고 있는데……
+    <t xml:space="preserve">[name="폴리닉"]  아니…… 애초에 이거 라이타니아 말은 맞아? 현대 라이타니아어에 이렇게 난해한 발음은 없다고 알고 있는데……
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  세버린 씨, ……라이타니엔에는 수많은 이동도시가 있죠. 그 높으신 분들이 과연 당신들 생사 따위에 신경이나 쓸까요?
+    <t xml:space="preserve">[name="폴리닉"]  세버린 씨, ……라이타니아에는 수많은 이동도시가 있죠. 그 높으신 분들이 과연 당신들 생사 따위에 신경이나 쓸까요?
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re just looking for a simple answer to dodge the question, aren’t you? You’ll just leave it as “conflicts” and “clashes?”
+    <t xml:space="preserve">[name="Folinic"]  You’re just looking for a simple answer to dodge the question, aren’t you? You’ll just leave it as 'conflicts' and 'clashes?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
@@ -788,7 +788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Wow, it’s echoing through the whole town...
+    <t xml:space="preserve">[name="Suzuran"]  Wow, it's echoing through the whole town...
 </t>
   </si>
   <si>
@@ -824,7 +824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No... is that the Leithanien tongue? It doesn’t sound like modern Leithanien pronunciation...
+    <t xml:space="preserve">[name="Folinic"]  No... is that the Leithanien tongue? It doesn't sound like modern Leithanien pronunciation...
 </t>
   </si>
   <si>
@@ -832,11 +832,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  It reminds me of looking out over the plains from the bridge of Rhodes Island for the very first time. It’s melodious... ancient...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  This is… also Arts… but the same kind as the ancient Arts of Higashi!
+    <t xml:space="preserve">[name="Suzuran"]  It reminds me of looking out over the plains from the bridge of Rhodes Island for the very first time. It's melodious... ancient...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  This is... also Arts... but the same kind as the ancient Arts of Higashi!
 </t>
   </si>
   <si>
@@ -852,11 +852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  That’ll just stir up even more resentment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  We’re doing this to keep them from fomenting animosity between Infected and non-infected. The Winterwisps may well have been behind all this.
+    <t xml:space="preserve">[name="Townsfolk"]  That'll just stir up even more resentment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  We're doing this to keep them from fomenting animosity between Infected and non-infected. The Winterwisps may well have been behind all this.
 </t>
   </si>
   <si>
@@ -864,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  It’s a Winterwisp ballad, for rituals and funerals.
+    <t xml:space="preserve">[name="Severin"]  It's a Winterwisp ballad, for rituals and funerals.
 </t>
   </si>
   <si>
@@ -872,11 +872,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Now is not the time for leniency. They’re trying to tell us something.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They wouldn’t tip their hand for no reason. There must be others out there in the shadows. Probably casters. Keep an eye out.
+    <t xml:space="preserve">[name="Severin"]  Now is not the time for leniency. They're trying to tell us something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They wouldn't tip their hand for no reason. There must be others out there in the shadows. Probably casters. Keep an eye out.
 </t>
   </si>
   <si>
@@ -896,19 +896,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No. There’s more to it than that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Columbia and Rim Billiton, pretty much every country has some kind of history of settler colonialism. There’s another force at work here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  You’re just looking for a simple answer to dodge the question, aren’t you? You’ll just leave it as 'conflicts' and 'clashes?'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I’m not sure I should be talking about this with you. It goes beyond what Rhodes Island has a need to know...
+    <t xml:space="preserve">[name="Folinic"]  No. There's more to it than that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Columbia and Rim Billiton, pretty much every country has some kind of history of settler colonialism. There's another force at work here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  You're just looking for a simple answer to dodge the question, aren't you? You'll just leave it as 'conflicts' and 'clashes?'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I'm not sure I should be talking about this with you. It goes beyond what Rhodes Island has a need to know...
 </t>
   </si>
   <si>
@@ -916,19 +916,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  You're… worried about unhappy aristocrats…?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Atro sacrificed herself for you! And you’re talking about saving face?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  M-Miss Folinic! Her sacrifice... shouldn’t be ammunition for an argument.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Mr. Severin...! Can you please stop this manhunt? It’s only agitating people. It’s only going to make things worse!
+    <t xml:space="preserve">[name="Folinic"]  You're... worried about unhappy aristocrats...?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Atro sacrificed herself for you! And you're talking about saving face?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  M-Miss Folinic! Her sacrifice... shouldn't be ammunition for an argument.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Mr. Severin...! Can you please stop this manhunt? It's only agitating people. It's only going to make things worse!
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No... We’re following our only lead. We can’t afford to lose it.
+    <t xml:space="preserve">[name="Folinic"]  No... We're following our only lead. We can't afford to lose it.
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But I also know Rhodes Island can’t help us forever. Once we’re safe again and Wolumonde is back on course, I don’t want to be getting letters from those ivory towers.
+    <t xml:space="preserve">[name="Severin"]  But I also know Rhodes Island can't help us forever. Once we're safe again and Wolumonde is back on course, I don't want to be getting letters from those ivory towers.
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  They, they activated those town defense things! They exploded, and everything’s burning, they—!
+    <t xml:space="preserve">[name="Townsfolk"]  They, they activated those town defense things! They exploded, and everything's burning, they—!
 </t>
   </si>
   <si>
@@ -992,19 +992,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Schultz! The Infected... they’ve captured all of the Gendarmerie patrolling Zwölftontechnik Strasse! We lost contact with them!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  They’re using the Gramophones to push us back. The whole district is out of control!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  They shouldn’t be so well-organized. Who’s leading them?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  We don’t know. But a lot of the non-infected have joined the protest. Wolumonde is completely divided!
+    <t xml:space="preserve">[name="Tatjana"]  Schultz! The Infected... they've captured all of the Gendarmerie patrolling Zwölftontechnik Strasse! We lost contact with them!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  They're using the Gramophones to push us back. The whole district is out of control!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  They shouldn't be so well-organized. Who's leading them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  We don't know. But a lot of the non-infected have joined the protest. Wolumonde is completely divided!
 </t>
   </si>
   <si>
@@ -1028,11 +1028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’m putting Wolumonde under martial law. Raise the entire militia.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  But if we start killing each other now, Wolumonde won’t survive the winter!
+    <t xml:space="preserve">[name="Severin"]  I'm putting Wolumonde under martial law. Raise the entire militia.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  But if we start killing each other now, Wolumonde won't survive the winter!
 </t>
   </si>
   <si>
@@ -1052,7 +1052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  To be frank, I don’t have time to keep an eye on you.
+    <t xml:space="preserve">[name="Severin"]  To be frank, I don't have time to keep an eye on you.
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  We’ll find the killer. That takes priority.
+    <t xml:space="preserve">[name="Folinic"]  We'll find the killer. That takes priority.
 </t>
   </si>
   <si>
@@ -1072,11 +1072,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I hope you’ll keep that promise.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  If I’m still alive by then.
+    <t xml:space="preserve">[name="Folinic"]  I hope you'll keep that promise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  If I'm still alive by then.
 </t>
   </si>
   <si>
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  No use. You saw them. The pressure’s gotten to them.
+    <t xml:space="preserve">[name="Folinic"]  No use. You saw them. The pressure's gotten to them.
 </t>
   </si>
   <si>
@@ -1092,15 +1092,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  But if a famine really is as imminent as the officer says, we’ll still have to...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...The only way to calm everyone down is to find the murderer as soon as possible. And letting our one lead go cold isn’t an option.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  That’s not what I meant...
+    <t xml:space="preserve">[name="Suzuran"]  But if a famine really is as imminent as the officer says, we'll still have to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...The only way to calm everyone down is to find the murderer as soon as possible. And letting our one lead go cold isn't an option.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  That's not what I meant...
 </t>
   </si>
   <si>
@@ -1128,11 +1128,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  I think... it’s just my gut feeling, but my intuition is usually pretty accurate!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  I think maybe... something even worse is starting to happen. The kind of thing that you can’t be sure if it’s right or wrong...
+    <t xml:space="preserve">[name="Suzuran"]  I think... it's just my gut feeling, but my intuition is usually pretty accurate!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  I think maybe... something even worse is starting to happen. The kind of thing that you can't be sure if it's right or wrong...
 </t>
   </si>
   <si>
@@ -1140,11 +1140,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Miss Folinic... If we don’t stop Mr. Severin, things are going to get really, really bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...Maybe you’re right.
+    <t xml:space="preserve">[name="Suzuran"]  Miss Folinic... If we don't stop Mr. Severin, things are going to get really, really bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...Maybe you're right.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_05_beg.xlsx
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  아니…… 애초에 이거 라이타니아 말은 맞아? 현대 라이타니아어에 이렇게 난해한 발음은 없다고 알고 있는데……
+    <t xml:space="preserve">[name="폴리닉"]  아니…… 애초에 이거 라이타니엔 말은 맞아? 현대 라이타니엔어에 이렇게 난해한 발음은 없다고 알고 있는데……
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  세버린 씨, ……라이타니아에는 수많은 이동도시가 있죠. 그 높으신 분들이 과연 당신들 생사 따위에 신경이나 쓸까요?
+    <t xml:space="preserve">[name="폴리닉"]  세버린 씨, ……라이타니엔에는 수많은 이동도시가 있죠. 그 높으신 분들이 과연 당신들 생사 따위에 신경이나 쓸까요?
 </t>
   </si>
   <si>
